--- a/data/trans_camb/P2C_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,8</t>
+          <t>0,52; 5,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,76</t>
+          <t>-0,3; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 21,76</t>
+          <t>6,08; 21,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,59</t>
+          <t>-1,59; 5,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 4,38</t>
+          <t>-1,58; 4,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 18,64</t>
+          <t>3,99; 18,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,44</t>
+          <t>0,34; 4,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,15</t>
+          <t>-0,24; 3,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,92</t>
+          <t>7,32; 18,03</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,04; —</t>
+          <t>-27,35; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>297,51; —</t>
+          <t>305,42; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,71; 1090,34</t>
+          <t>-61,64; 761,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 686,39</t>
+          <t>-57,55; 760,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,21; 2362,55</t>
+          <t>80,09; 2171,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 771,76</t>
+          <t>-7,09; 680,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 502,36</t>
+          <t>-32,82; 579,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>331,93; 2566,71</t>
+          <t>339,74; 3089,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 0,54</t>
+          <t>-5,56; 0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,18</t>
+          <t>-5,19; 1,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 18,01</t>
+          <t>2,67; 19,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,17</t>
+          <t>-1,56; 2,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,91</t>
+          <t>-1,4; 3,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 22,23</t>
+          <t>9,01; 22,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,76</t>
+          <t>-2,84; 0,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,27</t>
+          <t>-2,44; 1,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 18,0</t>
+          <t>7,12; 18,11</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 211,44</t>
+          <t>-100,0; 242,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1684,57</t>
+          <t>15,46; 1731,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>280,72; —</t>
+          <t>288,97; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-91,75; 159,39</t>
+          <t>-91,59; 191,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,5; 187,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>196,45; 2039,95</t>
+          <t>190,74; 2038,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,57</t>
+          <t>-0,7; 1,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,26</t>
+          <t>-0,67; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 24,01</t>
+          <t>8,66; 23,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,14</t>
+          <t>-3,66; 1,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,0</t>
+          <t>-4,59; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,86; 40,43</t>
+          <t>16,47; 41,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,07</t>
+          <t>-0,97; 1,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,29</t>
+          <t>-1,0; 1,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 26,45</t>
+          <t>13,48; 26,37</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>607,97; —</t>
+          <t>563,61; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,25; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,76; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>898,87; 11902,15</t>
+          <t>883,29; 10913,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,22</t>
+          <t>-0,81; 0,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,27</t>
+          <t>-0,37; 1,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,54; 25,88</t>
+          <t>13,38; 25,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,34</t>
+          <t>-2,33; 1,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,22</t>
+          <t>-3,19; 0,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 10,1</t>
+          <t>-1,44; 10,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,47</t>
+          <t>-0,89; 0,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,52</t>
+          <t>-0,98; 0,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 15,74</t>
+          <t>2,38; 15,6</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1859,62; —</t>
+          <t>1658,33; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-82,5; 215,93</t>
+          <t>-85,82; 279,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,46</t>
+          <t>-100,0; 74,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,3; 703,67</t>
+          <t>-49,35; 679,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-80,51; 126,4</t>
+          <t>-78,75; 138,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,57; 130,37</t>
+          <t>-79,37; 141,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>200,9; 2474,77</t>
+          <t>239,35; 2685,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,12</t>
+          <t>0,21; 1,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,47; 28,14</t>
+          <t>11,68; 28,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,4</t>
+          <t>0,33; 2,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,06</t>
+          <t>0,2; 2,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,38; 21,98</t>
+          <t>14,24; 22,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,8</t>
+          <t>0,36; 1,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,57</t>
+          <t>0,34; 1,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>14,68; 22,29</t>
+          <t>14,53; 22,24</t>
         </is>
       </c>
     </row>
@@ -1775,37 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,29; 61,58</t>
+          <t>3,91; 71,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 1,0</t>
+          <t>-0,26; 1,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,36</t>
+          <t>-0,22; 1,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,72; 26,9</t>
+          <t>17,41; 26,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,95</t>
+          <t>-0,24; 0,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,06</t>
+          <t>-0,19; 1,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,56; 27,49</t>
+          <t>17,57; 27,83</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2424,52; —</t>
+          <t>2391,24; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2442,51; —</t>
+          <t>2678,24; —</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 0,79</t>
+          <t>-0,42; 0,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,96</t>
+          <t>-0,26; 0,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,1; 19,82</t>
+          <t>13,34; 19,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,02</t>
+          <t>-0,21; 0,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,74</t>
+          <t>-0,39; 0,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,98; 17,21</t>
+          <t>5,56; 17,22</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,72</t>
+          <t>-0,16; 0,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,73</t>
+          <t>-0,17; 0,67</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,5; 17,14</t>
+          <t>8,04; 16,95</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 234,07</t>
+          <t>-49,73; 235,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 277,51</t>
+          <t>-32,02; 291,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1405,66; 5985,67</t>
+          <t>1299,12; 5820,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 214,12</t>
+          <t>-23,07; 185,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-41,63; 153,57</t>
+          <t>-36,91; 163,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>618,75; 3136,94</t>
+          <t>570,94; 2988,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 144,33</t>
+          <t>-21,15; 136,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 142,49</t>
+          <t>-20,18; 125,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1100,72; 3262,01</t>
+          <t>1085,66; 3255,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
